--- a/data/stat probs/dean wade stat probs - condition.xlsx
+++ b/data/stat probs/dean wade stat probs - condition.xlsx
@@ -18,19 +18,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="224 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -578,28 +578,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1380,28 +1380,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1766,28 +1766,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2152,28 +2152,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2538,28 +2538,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3020,28 +3020,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3434,6 +3434,970 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3502,28 +4466,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -3534,28 +4498,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -3566,28 +4530,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
+        <v>56</v>
+      </c>
+      <c r="H4" t="n">
         <v>44</v>
       </c>
-      <c r="H4" t="n">
-        <v>56</v>
-      </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -3598,28 +4562,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H5" t="n">
-        <v>78</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22</v>
-      </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -3630,16 +4594,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
         <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3662,16 +4626,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3694,16 +4658,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
         <v>56</v>
       </c>
-      <c r="D8" t="n">
-        <v>44</v>
-      </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3732,10 +4696,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3758,10 +4722,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3790,10 +4754,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4235,7 +5199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4304,28 +5268,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -4336,28 +5300,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -4368,28 +5332,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
+        <v>56</v>
+      </c>
+      <c r="H4" t="n">
         <v>44</v>
       </c>
-      <c r="H4" t="n">
-        <v>56</v>
-      </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -4400,28 +5364,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H5" t="n">
-        <v>78</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22</v>
-      </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -4432,16 +5396,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
         <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4464,16 +5428,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4496,16 +5460,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
         <v>56</v>
       </c>
-      <c r="D8" t="n">
-        <v>44</v>
-      </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4534,10 +5498,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4560,10 +5524,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4592,10 +5556,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -5029,970 +5993,6 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6070,28 +6070,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -6102,28 +6102,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -6134,28 +6134,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -6166,28 +6166,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -6198,16 +6198,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6216,10 +6216,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -6230,16 +6230,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6248,10 +6248,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -6262,16 +6262,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6280,10 +6280,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -6294,16 +6294,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6326,16 +6326,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6358,16 +6358,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6390,16 +6390,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6422,16 +6422,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6486,10 +6486,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6518,10 +6518,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6582,10 +6582,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6646,10 +6646,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6678,10 +6678,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6742,10 +6742,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6774,10 +6774,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6872,16 +6872,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7034,28 +7034,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -7066,28 +7066,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -7098,28 +7098,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -7130,28 +7130,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -7162,16 +7162,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -7194,16 +7194,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7212,10 +7212,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -7226,16 +7226,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7244,10 +7244,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -7258,16 +7258,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7290,16 +7290,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7322,16 +7322,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7354,16 +7354,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7386,16 +7386,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7418,16 +7418,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7450,10 +7450,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7482,10 +7482,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7514,10 +7514,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7546,10 +7546,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7578,10 +7578,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7610,10 +7610,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7706,10 +7706,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7738,10 +7738,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7768,1610 +7768,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>68</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27</v>
-      </c>
-      <c r="E5" t="n">
-        <v>68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41</v>
-      </c>
-      <c r="F7" t="n">
-        <v>59</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>91</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>95</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>91</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>95</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>95</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>95</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>95</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>95</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>95</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>95</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>68</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27</v>
-      </c>
-      <c r="E5" t="n">
-        <v>68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>32</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41</v>
-      </c>
-      <c r="F7" t="n">
-        <v>59</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>91</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>95</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>91</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>95</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>95</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>95</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>95</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>95</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>95</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>95</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9440,28 +7836,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -9853,7 +8249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9922,28 +8318,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -10327,6 +8723,522 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10404,28 +9316,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10694,28 +9606,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10984,28 +9896,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -11786,16 +10698,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11948,28 +10860,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -12750,28 +11662,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -13552,16 +12464,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13570,10 +12482,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13810,16 +12722,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13828,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14068,28 +12980,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +13462,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -15032,16 +13944,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15050,10 +13962,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15226,16 +14138,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15244,10 +14156,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15420,16 +14332,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15614,16 +14526,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15808,28 +14720,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -16098,28 +15010,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -16388,28 +15300,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17196,10 +16108,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17422,10 +16334,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17642,28 +16554,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18060,28 +16972,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18478,28 +17390,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18832,28 +17744,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19186,16 +18098,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19204,10 +18116,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19380,16 +18292,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19398,10 +18310,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19574,28 +18486,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -20056,28 +18968,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -20538,16 +19450,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20700,16 +19612,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20894,16 +19806,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21088,28 +20000,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -21666,28 +20578,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -22244,22 +21156,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22534,22 +21446,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22824,16 +21736,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22986,16 +21898,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23148,28 +22060,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23406,28 +22318,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23664,28 +22576,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -24466,16 +23378,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24484,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24724,16 +23636,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24742,10 +23654,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24982,16 +23894,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25000,10 +23912,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25240,16 +24152,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25258,10 +24170,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25498,28 +24410,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25756,28 +24668,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26014,28 +24926,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26368,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26722,28 +25634,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26980,28 +25892,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27238,28 +26150,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -27816,28 +26728,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28394,28 +27306,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28972,28 +27884,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29454,28 +28366,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29942,10 +28854,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30072,10 +28984,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30392,16 +29304,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30618,16 +29530,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30850,10 +29762,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31006,16 +29918,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31024,10 +29936,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31200,16 +30112,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31218,10 +30130,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31394,22 +30306,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31684,22 +30596,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31974,28 +30886,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32328,28 +31240,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32688,10 +31600,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32850,10 +31762,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33006,16 +31918,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33168,16 +32080,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33330,28 +32242,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -33908,16 +32820,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34070,28 +32982,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
